--- a/РАБОЧИЙ СТОЛ/10,07,25 ПОКОМ ЗПФ Ташкент/Ташкент/продажи Ташкент 04,07,25-10,07,25.xlsx
+++ b/РАБОЧИЙ СТОЛ/10,07,25 ПОКОМ ЗПФ Ташкент/Ташкент/продажи Ташкент 04,07,25-10,07,25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\Создание расчетов\ПОКОМ_КИ_UZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEA46B8-56C1-4361-A8CF-C33239B58127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40FD844-CB02-4109-B4AA-691AB86BF276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,6 +796,18 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -820,23 +832,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,9 +856,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -896,9 +896,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -931,26 +931,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -983,26 +966,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1183,7 +1149,7 @@
   <dimension ref="A1:K174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1200,88 +1166,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3">
         <v>699.94</v>
       </c>
@@ -1305,10 +1271,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3">
         <v>493.41300000000001</v>
       </c>
@@ -1332,10 +1298,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3">
         <v>300.87299999999999</v>
       </c>
@@ -1357,10 +1323,10 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3">
         <v>325</v>
       </c>
@@ -1384,10 +1350,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3">
         <v>266.34899999999999</v>
       </c>
@@ -1411,10 +1377,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3">
         <v>351.48700000000002</v>
       </c>
@@ -1438,10 +1404,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3">
         <v>517</v>
       </c>
@@ -1465,10 +1431,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3">
         <v>366.017</v>
       </c>
@@ -1492,10 +1458,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3">
         <v>379.089</v>
       </c>
@@ -1519,10 +1485,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3">
         <v>585</v>
       </c>
@@ -1544,10 +1510,10 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3">
         <v>561</v>
       </c>
@@ -1571,10 +1537,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3">
         <v>199.55600000000001</v>
       </c>
@@ -1594,10 +1560,10 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3">
         <v>192.37</v>
       </c>
@@ -1621,10 +1587,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3">
         <v>317.86</v>
       </c>
@@ -1648,10 +1614,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3">
         <v>169</v>
       </c>
@@ -1671,10 +1637,10 @@
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3">
         <v>214.20400000000001</v>
       </c>
@@ -1698,10 +1664,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="3">
         <v>348</v>
       </c>
@@ -1725,10 +1691,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3">
         <v>178.161</v>
       </c>
@@ -1750,10 +1716,10 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="3">
         <v>405</v>
       </c>
@@ -1777,10 +1743,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="3">
         <v>270</v>
       </c>
@@ -1804,10 +1770,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="3">
         <v>191.22399999999999</v>
       </c>
@@ -1829,10 +1795,10 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="3">
         <v>129.315</v>
       </c>
@@ -1856,10 +1822,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="25"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="3">
         <v>262</v>
       </c>
@@ -1883,10 +1849,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="3">
         <v>163.25299999999999</v>
       </c>
@@ -1908,10 +1874,10 @@
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="3">
         <v>121.376</v>
       </c>
@@ -1935,10 +1901,10 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="3">
         <v>122.062</v>
       </c>
@@ -1962,10 +1928,10 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="3">
         <v>182</v>
       </c>
@@ -1989,10 +1955,10 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="25"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="3">
         <v>120.867</v>
       </c>
@@ -2014,10 +1980,10 @@
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="3">
         <v>368</v>
       </c>
@@ -2041,10 +2007,10 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="3">
         <v>90.733999999999995</v>
       </c>
@@ -2064,10 +2030,10 @@
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="25"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="3">
         <v>89.972999999999999</v>
       </c>
@@ -2085,10 +2051,10 @@
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="25"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="3">
         <v>167</v>
       </c>
@@ -2112,10 +2078,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="25"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="3">
         <v>272</v>
       </c>
@@ -2139,10 +2105,10 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="3">
         <v>398</v>
       </c>
@@ -2166,10 +2132,10 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="3">
         <v>189</v>
       </c>
@@ -2193,10 +2159,10 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="25"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="3">
         <v>142</v>
       </c>
@@ -2220,10 +2186,10 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="25"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="3">
         <v>176</v>
       </c>
@@ -2247,10 +2213,10 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="25"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="3">
         <v>156</v>
       </c>
@@ -2272,10 +2238,10 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="25"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="3">
         <v>68.546000000000006</v>
       </c>
@@ -2295,10 +2261,10 @@
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="25"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="3">
         <v>185</v>
       </c>
@@ -2320,10 +2286,10 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="25"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="3">
         <v>237</v>
       </c>
@@ -2347,10 +2313,10 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="3">
         <v>165</v>
       </c>
@@ -2370,10 +2336,10 @@
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="25"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="3">
         <v>96.971000000000004</v>
       </c>
@@ -2393,10 +2359,10 @@
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="25"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="3">
         <v>158</v>
       </c>
@@ -2420,10 +2386,10 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="25"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="3">
         <v>144</v>
       </c>
@@ -2447,10 +2413,10 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="25"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="3">
         <v>257</v>
       </c>
@@ -2472,10 +2438,10 @@
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="25"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="3">
         <v>157</v>
       </c>
@@ -2499,10 +2465,10 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="25"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="3">
         <v>121.99299999999999</v>
       </c>
@@ -2524,10 +2490,10 @@
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="25"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="3">
         <v>63.381</v>
       </c>
@@ -2545,10 +2511,10 @@
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="25"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="3">
         <v>76.156000000000006</v>
       </c>
@@ -2570,10 +2536,10 @@
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="25"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="3">
         <v>38.298000000000002</v>
       </c>
@@ -2595,10 +2561,10 @@
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="25"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="3">
         <v>91</v>
       </c>
@@ -2622,10 +2588,10 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="25"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="3">
         <v>110</v>
       </c>
@@ -2649,10 +2615,10 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="25"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="3">
         <v>242</v>
       </c>
@@ -2674,10 +2640,10 @@
       <c r="K61" s="6"/>
     </row>
     <row r="62" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="25"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="3">
         <v>90</v>
       </c>
@@ -2701,10 +2667,10 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="25"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="3">
         <v>197</v>
       </c>
@@ -2728,10 +2694,10 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="25"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="3">
         <v>125</v>
       </c>
@@ -2755,10 +2721,10 @@
       </c>
     </row>
     <row r="65" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="25"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="3">
         <v>68.647000000000006</v>
       </c>
@@ -2778,10 +2744,10 @@
       <c r="K65" s="6"/>
     </row>
     <row r="66" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="25"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="3">
         <v>154</v>
       </c>
@@ -2805,10 +2771,10 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="25"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="3">
         <v>27</v>
       </c>
@@ -2826,10 +2792,10 @@
       <c r="K67" s="6"/>
     </row>
     <row r="68" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="25"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="3">
         <v>65.275999999999996</v>
       </c>
@@ -2851,10 +2817,10 @@
       <c r="K68" s="6"/>
     </row>
     <row r="69" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="25"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="3">
         <v>121</v>
       </c>
@@ -2876,10 +2842,10 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="25"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="3">
         <v>151</v>
       </c>
@@ -2903,10 +2869,10 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="25"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="3">
         <v>75</v>
       </c>
@@ -2928,10 +2894,10 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="25"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="3">
         <v>147</v>
       </c>
@@ -2955,10 +2921,10 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="25"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="3">
         <v>68.628</v>
       </c>
@@ -2980,10 +2946,10 @@
       <c r="K73" s="6"/>
     </row>
     <row r="74" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="25"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="3">
         <v>100</v>
       </c>
@@ -3007,10 +2973,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="25"/>
+      <c r="B75" s="13"/>
       <c r="C75" s="3">
         <v>155</v>
       </c>
@@ -3034,10 +3000,10 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="25"/>
+      <c r="B76" s="13"/>
       <c r="C76" s="3">
         <v>25.373999999999999</v>
       </c>
@@ -3061,10 +3027,10 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="25"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="3">
         <v>77</v>
       </c>
@@ -3088,10 +3054,10 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="25"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="3">
         <v>51.136000000000003</v>
       </c>
@@ -3113,10 +3079,10 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="25"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="3">
         <v>44.813000000000002</v>
       </c>
@@ -3140,10 +3106,10 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="25"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="3">
         <v>12</v>
       </c>
@@ -3159,10 +3125,10 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="25"/>
+      <c r="B81" s="13"/>
       <c r="C81" s="3">
         <v>83</v>
       </c>
@@ -3186,10 +3152,10 @@
       </c>
     </row>
     <row r="82" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="25"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="3">
         <v>43.539000000000001</v>
       </c>
@@ -3211,10 +3177,10 @@
       <c r="K82" s="6"/>
     </row>
     <row r="83" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="25"/>
+      <c r="B83" s="13"/>
       <c r="C83" s="3">
         <v>37</v>
       </c>
@@ -3234,10 +3200,10 @@
       <c r="K83" s="6"/>
     </row>
     <row r="84" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="25"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="3">
         <v>85</v>
       </c>
@@ -3259,10 +3225,10 @@
       <c r="K84" s="6"/>
     </row>
     <row r="85" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="25"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="3">
         <v>82.875</v>
       </c>
@@ -3284,10 +3250,10 @@
       <c r="K85" s="6"/>
     </row>
     <row r="86" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="25"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="3">
         <v>95</v>
       </c>
@@ -3309,10 +3275,10 @@
       <c r="K86" s="6"/>
     </row>
     <row r="87" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="25"/>
+      <c r="B87" s="13"/>
       <c r="C87" s="3">
         <v>51</v>
       </c>
@@ -3336,10 +3302,10 @@
       </c>
     </row>
     <row r="88" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="25"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="3">
         <v>37</v>
       </c>
@@ -3361,10 +3327,10 @@
       <c r="K88" s="6"/>
     </row>
     <row r="89" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="25"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="3">
         <v>42</v>
       </c>
@@ -3386,10 +3352,10 @@
       <c r="K89" s="6"/>
     </row>
     <row r="90" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="25"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="3">
         <v>71</v>
       </c>
@@ -3411,10 +3377,10 @@
       </c>
     </row>
     <row r="91" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="25"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="3">
         <v>34.619999999999997</v>
       </c>
@@ -3434,10 +3400,10 @@
       <c r="K91" s="6"/>
     </row>
     <row r="92" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="25"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="3">
         <v>67</v>
       </c>
@@ -3459,10 +3425,10 @@
       </c>
     </row>
     <row r="93" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="25"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="3">
         <v>53</v>
       </c>
@@ -3486,10 +3452,10 @@
       </c>
     </row>
     <row r="94" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="25"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="3">
         <v>30</v>
       </c>
@@ -3509,10 +3475,10 @@
       <c r="K94" s="6"/>
     </row>
     <row r="95" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="25"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="3">
         <v>14</v>
       </c>
@@ -3530,10 +3496,10 @@
       </c>
     </row>
     <row r="96" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="25"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="3">
         <v>27</v>
       </c>
@@ -3551,10 +3517,10 @@
       </c>
     </row>
     <row r="97" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="25"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="3">
         <v>42</v>
       </c>
@@ -3574,10 +3540,10 @@
       <c r="K97" s="6"/>
     </row>
     <row r="98" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="25"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="3">
         <v>25</v>
       </c>
@@ -3597,10 +3563,10 @@
       <c r="K98" s="6"/>
     </row>
     <row r="99" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="25"/>
+      <c r="B99" s="13"/>
       <c r="C99" s="3">
         <v>40</v>
       </c>
@@ -3622,10 +3588,10 @@
       <c r="K99" s="6"/>
     </row>
     <row r="100" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="25"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="3">
         <v>27</v>
       </c>
@@ -3643,10 +3609,10 @@
       <c r="K100" s="6"/>
     </row>
     <row r="101" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="25"/>
+      <c r="B101" s="13"/>
       <c r="C101" s="3">
         <v>19</v>
       </c>
@@ -3662,10 +3628,10 @@
       <c r="K101" s="6"/>
     </row>
     <row r="102" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="25"/>
+      <c r="B102" s="13"/>
       <c r="C102" s="3">
         <v>20</v>
       </c>
@@ -3685,10 +3651,10 @@
       <c r="K102" s="6"/>
     </row>
     <row r="103" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="25"/>
+      <c r="B103" s="13"/>
       <c r="C103" s="3">
         <v>30</v>
       </c>
@@ -3710,10 +3676,10 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="25"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="3">
         <v>34</v>
       </c>
@@ -3729,10 +3695,10 @@
       <c r="K104" s="6"/>
     </row>
     <row r="105" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="25"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="3">
         <v>11.569000000000001</v>
       </c>
@@ -3752,10 +3718,10 @@
       <c r="K105" s="6"/>
     </row>
     <row r="106" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="25"/>
+      <c r="B106" s="13"/>
       <c r="C106" s="3">
         <v>33</v>
       </c>
@@ -3777,10 +3743,10 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="25"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="3">
         <v>28</v>
       </c>
@@ -3800,10 +3766,10 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="25"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="3">
         <v>27</v>
       </c>
@@ -3821,10 +3787,10 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="25"/>
+      <c r="B109" s="13"/>
       <c r="C109" s="3">
         <v>13</v>
       </c>
@@ -3842,10 +3808,10 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="25" t="s">
+      <c r="A110" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="25"/>
+      <c r="B110" s="13"/>
       <c r="C110" s="3">
         <v>22</v>
       </c>
@@ -3865,10 +3831,10 @@
       </c>
     </row>
     <row r="111" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="25"/>
+      <c r="B111" s="13"/>
       <c r="C111" s="3">
         <v>18</v>
       </c>
@@ -3886,10 +3852,10 @@
       </c>
     </row>
     <row r="112" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="25" t="s">
+      <c r="A112" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="25"/>
+      <c r="B112" s="13"/>
       <c r="C112" s="3">
         <v>10.874000000000001</v>
       </c>
@@ -3905,10 +3871,10 @@
       <c r="K112" s="6"/>
     </row>
     <row r="113" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="25"/>
+      <c r="B113" s="13"/>
       <c r="C113" s="3">
         <v>10</v>
       </c>
@@ -3924,10 +3890,10 @@
       <c r="K113" s="6"/>
     </row>
     <row r="114" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="25"/>
+      <c r="B114" s="13"/>
       <c r="C114" s="3">
         <v>13</v>
       </c>
@@ -3945,10 +3911,10 @@
       </c>
     </row>
     <row r="115" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="25"/>
+      <c r="B115" s="13"/>
       <c r="C115" s="3">
         <v>12</v>
       </c>
@@ -3968,10 +3934,10 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="25"/>
+      <c r="B116" s="13"/>
       <c r="C116" s="3">
         <v>2</v>
       </c>
@@ -3987,10 +3953,10 @@
       </c>
     </row>
     <row r="117" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="25"/>
+      <c r="B117" s="13"/>
       <c r="C117" s="3">
         <v>12</v>
       </c>
@@ -4008,10 +3974,10 @@
       </c>
     </row>
     <row r="118" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="25"/>
+      <c r="B118" s="13"/>
       <c r="C118" s="3">
         <v>10</v>
       </c>
@@ -4029,10 +3995,10 @@
       </c>
     </row>
     <row r="119" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="25"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="3">
         <v>10</v>
       </c>
@@ -4048,10 +4014,10 @@
       </c>
     </row>
     <row r="120" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="25" t="s">
+      <c r="A120" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="25"/>
+      <c r="B120" s="13"/>
       <c r="C120" s="3">
         <v>5</v>
       </c>
@@ -4067,10 +4033,10 @@
       <c r="K120" s="6"/>
     </row>
     <row r="121" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="25" t="s">
+      <c r="A121" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="25"/>
+      <c r="B121" s="13"/>
       <c r="C121" s="3">
         <v>6</v>
       </c>
@@ -4086,10 +4052,10 @@
       </c>
     </row>
     <row r="122" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="25" t="s">
+      <c r="A122" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="25"/>
+      <c r="B122" s="13"/>
       <c r="C122" s="3">
         <v>6</v>
       </c>
@@ -4105,10 +4071,10 @@
       </c>
     </row>
     <row r="123" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="25"/>
+      <c r="B123" s="13"/>
       <c r="C123" s="3">
         <v>2</v>
       </c>
@@ -4124,10 +4090,10 @@
       </c>
     </row>
     <row r="124" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="25" t="s">
+      <c r="A124" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="25"/>
+      <c r="B124" s="13"/>
       <c r="C124" s="3">
         <v>6</v>
       </c>
@@ -4143,10 +4109,10 @@
       <c r="K124" s="6"/>
     </row>
     <row r="125" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="25"/>
+      <c r="B125" s="13"/>
       <c r="C125" s="3">
         <v>1</v>
       </c>
@@ -4162,10 +4128,10 @@
       <c r="K125" s="6"/>
     </row>
     <row r="126" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="25"/>
+      <c r="B126" s="13"/>
       <c r="C126" s="3">
         <v>3</v>
       </c>
@@ -4181,10 +4147,10 @@
       </c>
     </row>
     <row r="127" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="25"/>
+      <c r="B127" s="13"/>
       <c r="C127" s="3">
         <v>3</v>
       </c>
@@ -4200,10 +4166,10 @@
       </c>
     </row>
     <row r="128" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="25"/>
+      <c r="B128" s="13"/>
       <c r="C128" s="3">
         <v>3</v>
       </c>
@@ -4219,10 +4185,10 @@
       </c>
     </row>
     <row r="129" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="25" t="s">
+      <c r="A129" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="25"/>
+      <c r="B129" s="13"/>
       <c r="C129" s="3">
         <v>3</v>
       </c>
@@ -4238,10 +4204,10 @@
       <c r="K129" s="6"/>
     </row>
     <row r="130" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="25" t="s">
+      <c r="A130" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="25"/>
+      <c r="B130" s="13"/>
       <c r="C130" s="3">
         <v>2</v>
       </c>
@@ -4257,10 +4223,10 @@
       </c>
     </row>
     <row r="131" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="25" t="s">
+      <c r="A131" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="25"/>
+      <c r="B131" s="13"/>
       <c r="C131" s="3">
         <v>2</v>
       </c>
@@ -4276,10 +4242,10 @@
       </c>
     </row>
     <row r="132" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="25"/>
+      <c r="B132" s="13"/>
       <c r="C132" s="3">
         <v>112.71299999999999</v>
       </c>
@@ -4303,10 +4269,10 @@
       </c>
     </row>
     <row r="133" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="25" t="s">
+      <c r="A133" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="25"/>
+      <c r="B133" s="13"/>
       <c r="C133" s="3">
         <v>111</v>
       </c>
@@ -4328,10 +4294,10 @@
       <c r="K133" s="6"/>
     </row>
     <row r="134" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="25" t="s">
+      <c r="A134" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B134" s="25"/>
+      <c r="B134" s="13"/>
       <c r="C134" s="3">
         <v>95.055999999999997</v>
       </c>
@@ -4355,10 +4321,10 @@
       </c>
     </row>
     <row r="135" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="25" t="s">
+      <c r="A135" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="25"/>
+      <c r="B135" s="13"/>
       <c r="C135" s="3">
         <v>92.427999999999997</v>
       </c>
@@ -4380,10 +4346,10 @@
       <c r="K135" s="6"/>
     </row>
     <row r="136" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="25" t="s">
+      <c r="A136" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="25"/>
+      <c r="B136" s="13"/>
       <c r="C136" s="3">
         <v>74.245999999999995</v>
       </c>
@@ -4407,10 +4373,10 @@
       </c>
     </row>
     <row r="137" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="25" t="s">
+      <c r="A137" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="25"/>
+      <c r="B137" s="13"/>
       <c r="C137" s="3">
         <v>70.248000000000005</v>
       </c>
@@ -4432,10 +4398,10 @@
       <c r="K137" s="6"/>
     </row>
     <row r="138" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="25" t="s">
+      <c r="A138" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="25"/>
+      <c r="B138" s="13"/>
       <c r="C138" s="3">
         <v>54.670999999999999</v>
       </c>
@@ -4453,10 +4419,10 @@
       <c r="K138" s="6"/>
     </row>
     <row r="139" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="25"/>
+      <c r="B139" s="13"/>
       <c r="C139" s="3">
         <v>50.915999999999997</v>
       </c>
@@ -4480,10 +4446,10 @@
       </c>
     </row>
     <row r="140" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="25" t="s">
+      <c r="A140" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="25"/>
+      <c r="B140" s="13"/>
       <c r="C140" s="3">
         <v>44.113</v>
       </c>
@@ -4505,10 +4471,10 @@
       <c r="K140" s="6"/>
     </row>
     <row r="141" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="25" t="s">
+      <c r="A141" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="25"/>
+      <c r="B141" s="13"/>
       <c r="C141" s="3">
         <v>39.502000000000002</v>
       </c>
@@ -4530,10 +4496,10 @@
       <c r="K141" s="6"/>
     </row>
     <row r="142" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="25"/>
+      <c r="B142" s="13"/>
       <c r="C142" s="3">
         <v>26</v>
       </c>
@@ -4557,10 +4523,10 @@
       </c>
     </row>
     <row r="143" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="25" t="s">
+      <c r="A143" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="25"/>
+      <c r="B143" s="13"/>
       <c r="C143" s="3">
         <v>23</v>
       </c>
@@ -4582,10 +4548,10 @@
       <c r="K143" s="6"/>
     </row>
     <row r="144" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="25" t="s">
+      <c r="A144" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B144" s="25"/>
+      <c r="B144" s="13"/>
       <c r="C144" s="3">
         <v>22</v>
       </c>
@@ -4607,10 +4573,10 @@
       </c>
     </row>
     <row r="145" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="25" t="s">
+      <c r="A145" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B145" s="25"/>
+      <c r="B145" s="13"/>
       <c r="C145" s="3">
         <v>18.885000000000002</v>
       </c>
@@ -4632,10 +4598,10 @@
       <c r="K145" s="6"/>
     </row>
     <row r="146" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="25" t="s">
+      <c r="A146" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B146" s="25"/>
+      <c r="B146" s="13"/>
       <c r="C146" s="3">
         <v>12.411</v>
       </c>
@@ -4657,10 +4623,10 @@
       </c>
     </row>
     <row r="147" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="25" t="s">
+      <c r="A147" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="25"/>
+      <c r="B147" s="13"/>
       <c r="C147" s="3">
         <v>12.201000000000001</v>
       </c>
@@ -4684,10 +4650,10 @@
       </c>
     </row>
     <row r="148" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="25" t="s">
+      <c r="A148" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="25"/>
+      <c r="B148" s="13"/>
       <c r="C148" s="3">
         <v>10</v>
       </c>
@@ -4705,10 +4671,10 @@
       <c r="K148" s="6"/>
     </row>
     <row r="149" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B149" s="25"/>
+      <c r="B149" s="13"/>
       <c r="C149" s="3">
         <v>7</v>
       </c>
@@ -4728,10 +4694,10 @@
       <c r="K149" s="6"/>
     </row>
     <row r="150" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="25" t="s">
+      <c r="A150" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B150" s="25"/>
+      <c r="B150" s="13"/>
       <c r="C150" s="3">
         <v>6</v>
       </c>
@@ -4755,10 +4721,10 @@
       </c>
     </row>
     <row r="151" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="25" t="s">
+      <c r="A151" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B151" s="25"/>
+      <c r="B151" s="13"/>
       <c r="C151" s="3">
         <v>4.4029999999999996</v>
       </c>
@@ -4774,10 +4740,10 @@
       <c r="K151" s="6"/>
     </row>
     <row r="152" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="25" t="s">
+      <c r="A152" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B152" s="25"/>
+      <c r="B152" s="13"/>
       <c r="C152" s="3">
         <v>3</v>
       </c>
@@ -4793,10 +4759,10 @@
       <c r="K152" s="6"/>
     </row>
     <row r="153" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="25" t="s">
+      <c r="A153" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B153" s="25"/>
+      <c r="B153" s="13"/>
       <c r="C153" s="3">
         <v>1.3520000000000001</v>
       </c>
@@ -4812,10 +4778,10 @@
       <c r="K153" s="6"/>
     </row>
     <row r="154" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="25"/>
+      <c r="B154" s="13"/>
       <c r="C154" s="3">
         <v>-1</v>
       </c>
@@ -4831,10 +4797,10 @@
       <c r="K154" s="6"/>
     </row>
     <row r="155" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="25" t="s">
+      <c r="A155" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="25"/>
+      <c r="B155" s="13"/>
       <c r="C155" s="3">
         <v>-1</v>
       </c>
@@ -4850,10 +4816,10 @@
       <c r="K155" s="6"/>
     </row>
     <row r="156" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="25" t="s">
+      <c r="A156" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B156" s="25"/>
+      <c r="B156" s="13"/>
       <c r="C156" s="3">
         <v>-1</v>
       </c>
@@ -4869,10 +4835,10 @@
       <c r="K156" s="6"/>
     </row>
     <row r="157" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="25" t="s">
+      <c r="A157" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B157" s="25"/>
+      <c r="B157" s="13"/>
       <c r="C157" s="3">
         <v>-3</v>
       </c>
@@ -4888,10 +4854,10 @@
       <c r="K157" s="6"/>
     </row>
     <row r="158" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="25" t="s">
+      <c r="A158" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B158" s="25"/>
+      <c r="B158" s="13"/>
       <c r="C158" s="3">
         <v>-1.0249999999999999</v>
       </c>
@@ -4907,10 +4873,10 @@
       <c r="K158" s="6"/>
     </row>
     <row r="159" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="25" t="s">
+      <c r="A159" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B159" s="25"/>
+      <c r="B159" s="13"/>
       <c r="C159" s="3">
         <v>-3</v>
       </c>
@@ -4926,10 +4892,10 @@
       </c>
     </row>
     <row r="160" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="25" t="s">
+      <c r="A160" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B160" s="25"/>
+      <c r="B160" s="13"/>
       <c r="C160" s="3">
         <v>-2</v>
       </c>
@@ -4945,10 +4911,10 @@
       <c r="K160" s="6"/>
     </row>
     <row r="161" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="25" t="s">
+      <c r="A161" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B161" s="25"/>
+      <c r="B161" s="13"/>
       <c r="C161" s="3">
         <v>-4</v>
       </c>
@@ -4964,10 +4930,10 @@
       </c>
     </row>
     <row r="162" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B162" s="25"/>
+      <c r="B162" s="13"/>
       <c r="C162" s="3">
         <v>-5</v>
       </c>
@@ -4987,10 +4953,10 @@
       <c r="K162" s="6"/>
     </row>
     <row r="163" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="25" t="s">
+      <c r="A163" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B163" s="25"/>
+      <c r="B163" s="13"/>
       <c r="C163" s="3">
         <v>-2.633</v>
       </c>
@@ -5008,10 +4974,10 @@
       <c r="K163" s="6"/>
     </row>
     <row r="164" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="25" t="s">
+      <c r="A164" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B164" s="25"/>
+      <c r="B164" s="13"/>
       <c r="C164" s="3">
         <v>-2.7959999999999998</v>
       </c>
@@ -5027,10 +4993,10 @@
       <c r="K164" s="6"/>
     </row>
     <row r="165" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="25" t="s">
+      <c r="A165" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B165" s="25"/>
+      <c r="B165" s="13"/>
       <c r="C165" s="3">
         <v>-7</v>
       </c>
@@ -5046,10 +5012,10 @@
       <c r="K165" s="6"/>
     </row>
     <row r="166" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="25" t="s">
+      <c r="A166" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B166" s="25"/>
+      <c r="B166" s="13"/>
       <c r="C166" s="3">
         <v>-1.4</v>
       </c>
@@ -5065,10 +5031,10 @@
       <c r="K166" s="6"/>
     </row>
     <row r="167" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="25" t="s">
+      <c r="A167" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B167" s="25"/>
+      <c r="B167" s="13"/>
       <c r="C167" s="3">
         <v>-4</v>
       </c>
@@ -5090,10 +5056,10 @@
       <c r="K167" s="6"/>
     </row>
     <row r="168" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B168" s="25"/>
+      <c r="B168" s="13"/>
       <c r="C168" s="3">
         <v>-7</v>
       </c>
@@ -5109,10 +5075,10 @@
       <c r="K168" s="6"/>
     </row>
     <row r="169" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="25" t="s">
+      <c r="A169" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="25"/>
+      <c r="B169" s="13"/>
       <c r="C169" s="3">
         <v>-13</v>
       </c>
@@ -5132,10 +5098,10 @@
       <c r="K169" s="6"/>
     </row>
     <row r="170" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="25" t="s">
+      <c r="A170" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B170" s="25"/>
+      <c r="B170" s="13"/>
       <c r="C170" s="3">
         <v>-1.635</v>
       </c>
@@ -5153,10 +5119,10 @@
       <c r="K170" s="6"/>
     </row>
     <row r="171" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B171" s="25"/>
+      <c r="B171" s="13"/>
       <c r="C171" s="3">
         <v>-10</v>
       </c>
@@ -5178,10 +5144,10 @@
       <c r="K171" s="6"/>
     </row>
     <row r="172" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B172" s="25"/>
+      <c r="B172" s="13"/>
       <c r="C172" s="3">
         <v>-6</v>
       </c>
@@ -5199,10 +5165,10 @@
       <c r="K172" s="6"/>
     </row>
     <row r="173" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B173" s="25"/>
+      <c r="B173" s="13"/>
       <c r="C173" s="3">
         <v>-29</v>
       </c>
@@ -5224,10 +5190,10 @@
       </c>
     </row>
     <row r="174" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="26" t="s">
+      <c r="A174" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B174" s="26"/>
+      <c r="B174" s="14"/>
       <c r="C174" s="8">
         <v>16596.474999999999</v>
       </c>
@@ -5252,6 +5218,168 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
     <mergeCell ref="A167:B167"/>
     <mergeCell ref="A168:B168"/>
     <mergeCell ref="A169:B169"/>
@@ -5269,168 +5397,6 @@
     <mergeCell ref="A164:B164"/>
     <mergeCell ref="A165:B165"/>
     <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
